--- a/editable/About/About-en.xlsx
+++ b/editable/About/About-en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\luke\Projects\tanzstudio_aliia_pushilina\editable\About\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770483D5-5D8E-4821-AB65-931E9BBE920B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5404DDA9-DF1F-4B63-B526-9ECF6076B019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.85546875" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
